--- a/用例数据/深港/买卖/T日测试结果.xlsx
+++ b/用例数据/深港/买卖/T日测试结果.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="303">
   <si>
     <t>EXCHID</t>
   </si>
@@ -285,9 +285,6 @@
     <t>CREDITUSABLEQTY</t>
   </si>
   <si>
-    <t>CREDITBUYFROZENQTY</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -363,33 +360,15 @@
     <t>110129.0000</t>
   </si>
   <si>
-    <t>110.129</t>
-  </si>
-  <si>
-    <t>90548.0600</t>
-  </si>
-  <si>
-    <t>0.822200</t>
-  </si>
-  <si>
     <t>23131</t>
   </si>
   <si>
     <t>比迪瑞通八乙购Ａ</t>
   </si>
   <si>
-    <t>152.011</t>
-  </si>
-  <si>
     <t>8054.9000</t>
   </si>
   <si>
-    <t>23.014</t>
-  </si>
-  <si>
-    <t>6622.7400</t>
-  </si>
-  <si>
     <t>CONTRACTNUM</t>
   </si>
   <si>
@@ -931,6 +910,32 @@
   </si>
   <si>
     <t>-99382.620</t>
+  </si>
+  <si>
+    <t>110.1290</t>
+  </si>
+  <si>
+    <t>99380.4100</t>
+  </si>
+  <si>
+    <t>0.902400</t>
+  </si>
+  <si>
+    <t>152.0110</t>
+  </si>
+  <si>
+    <t>23.0140</t>
+  </si>
+  <si>
+    <t>7268.7400</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,12 +987,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1268,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI4"/>
+  <dimension ref="A1:CH4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CG15" sqref="CG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1360,10 +1368,9 @@
     <col min="84" max="84" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,811 +1629,800 @@
       <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="W3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>93</v>
+      <c r="BP4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY5"/>
+  <dimension ref="A1:CY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2560,22 +2556,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>23</v>
@@ -2587,58 +2583,58 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>21</v>
@@ -2647,1255 +2643,1258 @@
         <v>2</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CN1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CU1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BR2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BT2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BV2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CN2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CH2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CL2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CN2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="CY2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CI3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW3" s="1" t="s">
+      <c r="CN3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AX3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BR3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CH3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CK3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="CX3" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM4" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP4" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF4" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="CG4" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="CH4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CI4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="CK4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM4" s="1" t="s">
+      <c r="CL4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CN4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="CT4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AX4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CN4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CO4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="CV4" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="CY4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="CH5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="CL5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS5" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="CT5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CN5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="CV5" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="CY5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
+    <row r="7" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>